--- a/公司文件/公司手机.xlsx
+++ b/公司文件/公司手机.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>手机编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
   </si>
   <si>
     <t>XT025</t>
-  </si>
-  <si>
-    <t>王牧云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发放</t>
@@ -601,7 +597,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,7 +616,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -631,7 +627,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -708,7 +704,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -719,7 +715,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -730,7 +726,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -762,8 +758,8 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -807,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -829,7 +825,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -840,7 +836,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -851,7 +847,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -862,7 +858,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">

--- a/公司文件/公司手机.xlsx
+++ b/公司文件/公司手机.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,8 +780,8 @@
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
